--- a/データ管理.xlsx
+++ b/データ管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27A6B3-F9E0-44FB-925D-07A03EDFDB7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645D54C8-D126-4B92-804D-7185EEE957E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1143,10 +1143,9 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{72FC2D38-4E0A-4870-8E1E-5F62AFCDFF76}"/>
-    <hyperlink ref="A26" r:id="rId2" xr:uid="{6055D323-6837-4C2D-8A76-3760AD7EFAAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
